--- a/Quantitative component.xlsx
+++ b/Quantitative component.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbashevkin/Google Drive/Manuscript data/Dispersal in a changing ocean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbashevkin/Documents/Dispersal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150FEDB-5D97-554A-83B0-2EF205947DF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B05CE2-3193-5043-9EE1-4B7581832F7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{9F6E1FF5-B0D2-CA4F-9036-A5CB997A5B7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{9F6E1FF5-B0D2-CA4F-9036-A5CB997A5B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="47">
   <si>
     <t>Species</t>
   </si>
@@ -78,15 +78,9 @@
     <t>Phenology</t>
   </si>
   <si>
-    <t>Hours to 50% eggs hatched</t>
-  </si>
-  <si>
     <t>Exposure_days</t>
   </si>
   <si>
-    <t>Maloney et al. MEPS 1994</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -109,13 +103,82 @@
   </si>
   <si>
     <t>Percent survival, Can get value for salinity of interest</t>
+  </si>
+  <si>
+    <t>Who did it?</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Days to 50% eggs hatched</t>
+  </si>
+  <si>
+    <t>Moloney et al. MEPS 1994</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>Panulirus interruptus</t>
+  </si>
+  <si>
+    <t>Lowder 2019</t>
+  </si>
+  <si>
+    <t>Percent surviva, can get pH units, no significant difference</t>
+  </si>
+  <si>
+    <t>Percent survival, no significant difference</t>
+  </si>
+  <si>
+    <t>Days to stage II, no significant difference</t>
+  </si>
+  <si>
+    <t>Acanthaster planci</t>
+  </si>
+  <si>
+    <t>Uthicke et al. Sci. Rep. 2015</t>
+  </si>
+  <si>
+    <t>Days to late brachiolaria</t>
+  </si>
+  <si>
+    <t>Lucas 1973 Micronesia</t>
+  </si>
+  <si>
+    <t>Uthicke et al. PLOS ONE 2013</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>% settling</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Total length mm</t>
+  </si>
+  <si>
+    <t>% normal development, no sig difference</t>
+  </si>
+  <si>
+    <t>% normal development</t>
+  </si>
+  <si>
+    <t>Kamya et al. GCB 2014</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,9 +187,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,9 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A94748-F0D8-F14A-A559-5116CC949810}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,313 +571,1152 @@
     <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>466</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1781</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3920</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>466</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3920</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3920</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>466</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1781</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3920</v>
+      </c>
+      <c r="H4" s="2">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.2541666669999998</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>466</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3920</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3920</v>
+      </c>
+      <c r="H5" s="2">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.3416666670000001</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="E6" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>390.8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1065.3499999999999</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>26</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>390.8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1065.3499999999999</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="F12" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="F13" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>390.8</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1065.3499999999999</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="4">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4">
+        <v>24</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>390.8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1065.3499999999999</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="4">
+        <v>24</v>
+      </c>
+      <c r="K15" s="4">
+        <v>23</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="F16" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="4">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4">
+        <v>18.46</v>
+      </c>
+      <c r="F17" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4">
+        <v>24</v>
+      </c>
+      <c r="K17" s="4">
+        <v>20</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="4">
+        <v>15</v>
+      </c>
+      <c r="K18" s="4">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="L18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>8</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4">
+        <v>83.5</v>
+      </c>
+      <c r="K20" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4">
+        <v>341</v>
+      </c>
+      <c r="F21" s="4">
+        <v>806</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="K21" s="4">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="L21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4">
+        <v>536</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1211</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>466</v>
-      </c>
-      <c r="E2">
-        <v>1781</v>
-      </c>
-      <c r="F2">
-        <v>3920</v>
-      </c>
-      <c r="G2">
+      <c r="E23" s="4">
+        <v>536</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2056</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>536</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1211</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4">
+        <v>536</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2056</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>57.9</v>
-      </c>
-      <c r="J2">
-        <v>13.5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4">
+        <v>26</v>
+      </c>
+      <c r="F26" s="4">
+        <v>28</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4">
+        <v>477</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1060.5</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4">
+        <v>477</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1894.7</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4">
+        <v>28</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>466</v>
-      </c>
-      <c r="E3">
-        <v>3920</v>
-      </c>
-      <c r="F3">
-        <v>3920</v>
-      </c>
-      <c r="G3">
+      <c r="E31" s="4">
+        <v>477</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1060.5</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>57.9</v>
-      </c>
-      <c r="J3">
-        <v>21.1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4">
+        <v>477</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1894.7</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>466</v>
-      </c>
-      <c r="E4">
-        <v>1781</v>
-      </c>
-      <c r="F4">
-        <v>3920</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>84</v>
-      </c>
-      <c r="J4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>466</v>
-      </c>
-      <c r="E5">
-        <v>3920</v>
-      </c>
-      <c r="F5">
-        <v>3920</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>84</v>
-      </c>
-      <c r="J5">
-        <v>104.2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>88</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <v>88</v>
-      </c>
-      <c r="J9">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
+      <c r="I32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
